--- a/biology/Zoologie/Eleutherodactylus_inoptatus/Eleutherodactylus_inoptatus.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_inoptatus/Eleutherodactylus_inoptatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus inoptatus est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus inoptatus est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1]. Elle se rencontre du niveau de la mer jusqu'à 1 700 m d'altitude en République dominicaine et à Haïti y compris sur l'Ile de la Tortue.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola. Elle se rencontre du niveau de la mer jusqu'à 1 700 m d'altitude en République dominicaine et à Haïti y compris sur l'Ile de la Tortue.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent jusqu'à 88 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 88 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbour, 1914 : A contribution to the zoogeography of the West Indies, with special reference to amphibians and reptiles. Memoirs of the Museum of Comparative Zoölogy at Harvard College, vol. 44, no 2, p. 204-259 (texte intégral).</t>
         </is>
